--- a/results_exact/16_origem_transbordo.xlsx
+++ b/results_exact/16_origem_transbordo.xlsx
@@ -444,14 +444,14 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -459,29 +459,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paraúna, GO, Brazil</t>
+          <t>Padre Bernardo, GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>141554.56</v>
       </c>
       <c r="E2" t="n">
-        <v>300804.96</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -509,14 +509,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caldas Novas, GO, Brazil</t>
+          <t>Niquelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>124868</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -537,7 +537,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quirinópolis, GO, Brazil</t>
+          <t>Santa Helena de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>58869.6</v>
+        <v>131920.8</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -565,14 +565,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Goiatuba, GO, Brazil</t>
+          <t>Cristalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>652847.6</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -593,14 +593,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Piracanjuba, GO, Brazil</t>
+          <t>Gameleira de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>69926.08</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -621,14 +621,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Santa Cruz de Goiás, GO, Brazil</t>
+          <t>Bom Jesus de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50682.88</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -643,20 +643,20 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152946.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Orizona, GO, Brazil</t>
+          <t>Vicentinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>93300.64</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -677,20 +677,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Perolândia, GO, Brazil</t>
+          <t>Itaberaí, GO, Brazil</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>48419.6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>99059.92</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acreúna, GO, Brazil</t>
+          <t>Morrinhos, GO, Brazil</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>124916.64</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -733,17 +733,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Padre Bernardo, GO, Brazil</t>
+          <t>Ipameri, GO, Brazil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>127721.772</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>141554.56</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -761,14 +761,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vianópolis, GO, Brazil</t>
+          <t>Montes Claros de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>88170.33600000001</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>108798.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chapadão do Céu, GO, Brazil</t>
+          <t>Doverlândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>46843.36</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -817,17 +817,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ipameri, GO, Brazil</t>
+          <t>Paraúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34421.13200000003</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>300804.96</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -845,14 +845,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Itaberaí, GO, Brazil</t>
+          <t>Palmeiras de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48419.6</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>86804.16</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -873,39 +873,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cristalina, GO, Brazil</t>
+          <t>Serranópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79462.21480000444</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>220291.536</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>40142.25999999989</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40454.2200000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Montes Claros de Goiás, GO, Brazil</t>
+          <t>Acreúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88170.33600000001</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>124916.64</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -929,20 +929,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Edéia, GO, Brazil</t>
+          <t>São João d'Aliança, GO, Brazil</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>94696</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>65679.2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Doverlândia, GO, Brazil</t>
+          <t>Turvelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46843.36</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>64432.8</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bela Vista de Goiás, GO, Brazil</t>
+          <t>Caldas Novas, GO, Brazil</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>48903.72</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santa Helena de Goiás, GO, Brazil</t>
+          <t>Goiatuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>131920.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mineiros, GO, Brazil</t>
+          <t>Joviânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>264639.6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Itumbiara, GO, Brazil</t>
+          <t>Uruaçu, GO, Brazil</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>59553.6</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1097,20 +1097,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Montividiu, GO, Brazil</t>
+          <t>Edealina, GO, Brazil</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>60315.728</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>349195.68</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1125,23 +1125,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jataí, GO, Brazil</t>
+          <t>Cabeceiras, GO, Brazil</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75072.8</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>532028.4999999998</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>271610.7000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Catalão, GO, Brazil</t>
+          <t>Água Fria de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>102098.4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Caiapônia, GO, Brazil</t>
+          <t>Orizona, GO, Brazil</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157852</v>
+        <v>93300.64</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vicentinópolis, GO, Brazil</t>
+          <t>Caiapônia, GO, Brazil</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>157852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1237,11 +1237,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bom Jesus de Goiás, GO, Brazil</t>
+          <t>Santa Cruz de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>50682.88</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Palmeiras de Goiás, GO, Brazil</t>
+          <t>Montividiu, GO, Brazil</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1275,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>86804.16</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>349195.68</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rio Verde, GO, Brazil</t>
+          <t>Vianópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>947522.4</v>
+        <v>108798.56</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1321,11 +1321,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Niquelândia, GO, Brazil</t>
+          <t>Mineiros, GO, Brazil</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>124868</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1343,26 +1343,26 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>264639.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Turvelândia, GO, Brazil</t>
+          <t>Piracanjuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>42809.06400000004</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>125120.536</v>
       </c>
       <c r="E33" t="n">
-        <v>64432.8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Edealina, GO, Brazil</t>
+          <t>Catalão, GO, Brazil</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>10948.00000000017</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1405,14 +1405,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portelândia, GO, Brazil</t>
+          <t>Pontalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>15199.05161824987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>61172.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>São João d'Aliança, GO, Brazil</t>
+          <t>Portelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1452,26 +1452,26 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>61172.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruaçu, GO, Brazil</t>
+          <t>Luziânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>165041.6</v>
       </c>
       <c r="D37" t="n">
-        <v>59553.6</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pontalina, GO, Brazil</t>
+          <t>Jataí, GO, Brazil</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>803639.2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1517,20 +1517,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gameleira de Goiás, GO, Brazil</t>
+          <t>Silvânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>106372.4879999999</v>
       </c>
       <c r="D39" t="n">
-        <v>69926.08</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>92656.31200000005</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Serranópolis, GO, Brazil</t>
+          <t>Perolândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>80596.48</v>
+        <v>99059.92</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1573,11 +1573,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cabeceiras, GO, Brazil</t>
+          <t>Rio Verde, GO, Brazil</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>75072.8</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>947522.4</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1601,17 +1601,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Água Fria de Goiás, GO, Brazil</t>
+          <t>Bela Vista de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>48903.72</v>
       </c>
       <c r="D42" t="n">
-        <v>102098.4</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joviânia, GO, Brazil</t>
+          <t>Quirinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>58869.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Morrinhos, GO, Brazil</t>
+          <t>Chapadão do Céu, GO, Brazil</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1679,17 +1679,17 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>158806.0000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Silvânia, GO, Brazil</t>
+          <t>Edéia, GO, Brazil</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13071.84799999994</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1701,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>65679.2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>185956.952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Campo Alegre de Goiás, GO, Brazil</t>
+          <t>Itumbiara, GO, Brazil</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1741,11 +1741,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luziânia, GO, Brazil</t>
+          <t>Campo Alegre de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>165041.6</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1788,14 +1788,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8044937.565365476</v>
       </c>
       <c r="D2" t="n">
-        <v>10288911.27445802</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8782433.375991084</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1619748.868390618</v>
+        <v>2720363.686428505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>76085450.00438102</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7022207.669610313</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1349469.395230381</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6429432.062792062</v>
       </c>
     </row>
     <row r="8">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>2653181.390404218</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4284321.444328976</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3839717.238516025</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3410872.607645364</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1950310.466083322</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8044937.565365476</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9666464.991903936</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2939123.578351854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2432937.151252837</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>525610.4181989866</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>27327618.7297374</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4284321.444328976</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9095268.477993559</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2146,30 +2146,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9260841.843338512</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>20717817.47595986</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1495336.122723457</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2100683.713289755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9666464.991903936</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3410872.607645364</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2195,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>9052113.976218324</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2353316.185845585</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2432937.151252837</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1709693.118894456</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4087640.453570582</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2720363.686428505</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15709176.48499315</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2071451.197421997</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>7160425.13816707</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>7915836.090287932</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2356,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8512897.607964963</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>15457656.96604082</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>12028260.945951</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6878460.051798791</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6687156.994889905</v>
+        <v>3129767.451201111</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6687156.994889905</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1349469.395230381</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>7142461.443541768</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7915836.090287932</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14468659.68605875</v>
+        <v>2939123.578351854</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8782433.375991084</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15709176.48499315</v>
       </c>
     </row>
     <row r="33">
@@ -2540,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>4767735.324841965</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>11120137.75323794</v>
       </c>
       <c r="D33" t="n">
-        <v>1709693.118894456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>442649.5741491197</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1785443.475559238</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3886394.276011742</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2621,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>10357140.0196276</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3886394.276011742</v>
       </c>
     </row>
     <row r="37">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17506224.20912256</v>
       </c>
       <c r="C37" t="n">
-        <v>2071451.197421997</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>23349085.7690208</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>11115256.40827837</v>
       </c>
       <c r="C39" t="n">
-        <v>5449101.715752359</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2374475.430869775</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4185168.145238818</v>
+        <v>3839717.238516025</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8512897.607964963</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14468659.68605875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>5187812.708297322</v>
       </c>
       <c r="C42" t="n">
-        <v>6878460.051798791</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1619748.868390618</v>
       </c>
     </row>
     <row r="44">
@@ -2808,12 +2808,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10688438.19319549</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1365925.954933386</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2353316.185845585</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>4765462.861541801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2859,7 +2859,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17506224.20912256</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -2902,14 +2902,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2082739152461.184</v>
       </c>
       <c r="D2" t="n">
-        <v>2016265015910.924</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2434015749740.4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>255168811226.088</v>
+        <v>249902513193.168</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>23405403818666.72</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2107886236769.309</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>203743445765.9904</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1449263033425.469</v>
       </c>
     </row>
     <row r="8">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>434885603206.6512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3102,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1254923160102.048</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>823789929268.0344</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>532206281679.3936</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2082739152461.184</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2945338771201.943</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>452334062682.4032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>608048835737.2704</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8048011948551.794</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1254923160102.048</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2750518738082.765</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -3260,30 +3260,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2848819886478.467</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>6143349787938.88</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>312359204175.9106</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>524967495672.9236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2945338771201.943</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>532206281679.3936</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2692581666317.76</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>478043466812.352</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>608048835737.2704</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>256936781591.352</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1182680608414.867</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>249902513193.168</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4130549143796.376</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>411375173128.272</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2208765464910.112</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>914608499171.7024</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3470,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2607773169845.184</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2596108560594.149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2789812333401.518</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1883087960771.952</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1513983564170.16</v>
+        <v>603598313246.1888</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1513983564170.16</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>203743445765.9904</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2059219948487.99</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>914608499171.7024</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>452334062682.4032</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2434015749740.4</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4130549143796.376</v>
       </c>
     </row>
     <row r="33">
@@ -3654,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1456381345628.959</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3260204090847.617</v>
       </c>
       <c r="D33" t="n">
-        <v>256936781591.352</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>97518408870.12157</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>549891399006.2589</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1045119149340.48</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3154564293521.76</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1045119149340.48</v>
       </c>
     </row>
     <row r="37">
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5305097385149.089</v>
       </c>
       <c r="C37" t="n">
-        <v>411375173128.272</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3921471512802.48</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3792,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>3359820851301.754</v>
       </c>
       <c r="C39" t="n">
-        <v>1551002621224.762</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>339705956212.2427</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1045886739767.885</v>
+        <v>823789929268.0344</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2607773169845.184</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -3861,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1572144459487.002</v>
       </c>
       <c r="C42" t="n">
-        <v>1883087960771.952</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>255168811226.088</v>
       </c>
     </row>
     <row r="44">
@@ -3922,12 +3922,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2925290598248.641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>412879949517.0872</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -3939,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>478043466812.352</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>681774213002.0682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3973,7 +3973,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5305097385149.089</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1344733769.006293</v>
+        <v>1200716706.325243</v>
       </c>
       <c r="B2" t="n">
-        <v>164896506869013.3</v>
+        <v>150532842521480.5</v>
       </c>
     </row>
   </sheetData>
